--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E4068-0567-412C-A8E9-FDD7CDBE47C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -124,12 +123,24 @@
   </si>
   <si>
     <t>Pedro Henrique de Lima Batista</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>SEG</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,13 +170,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -440,282 +463,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C1" s="1">
+        <v>45499</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45502</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45506</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45509</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45513</v>
+      </c>
+      <c r="H1" s="1">
+        <v>45516</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45520</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45523</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45527</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45530</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45534</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45537</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45541</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45544</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45548</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
       <c r="B31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>31</v>
       </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
+  <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
+  <conditionalFormatting sqref="C3:CV33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D75B8E3-2FC6-4728-8D63-D76FBF873268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,14 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +599,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D75B8E3-2FC6-4728-8D63-D76FBF873268}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E7245E-405F-4D56-8EE0-2DCFAAC01430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="37">
   <si>
     <t>Aluno</t>
   </si>
@@ -471,7 +471,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +601,12 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -615,6 +621,12 @@
       <c r="D4" t="s">
         <v>36</v>
       </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -629,6 +641,12 @@
       <c r="D5" t="s">
         <v>36</v>
       </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -643,6 +661,12 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -657,6 +681,12 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -671,6 +701,12 @@
       <c r="D8" t="s">
         <v>36</v>
       </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -685,6 +721,12 @@
       <c r="D9" t="s">
         <v>36</v>
       </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -699,6 +741,12 @@
       <c r="D10" t="s">
         <v>36</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -713,6 +761,12 @@
       <c r="D11" t="s">
         <v>36</v>
       </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -727,6 +781,12 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -741,6 +801,12 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -755,6 +821,12 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -769,6 +841,12 @@
       <c r="D15" t="s">
         <v>36</v>
       </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -783,8 +861,14 @@
       <c r="D16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -797,8 +881,14 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -811,8 +901,14 @@
       <c r="D18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -825,8 +921,14 @@
       <c r="D19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -839,8 +941,14 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -853,8 +961,14 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -867,8 +981,14 @@
       <c r="D22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -881,8 +1001,14 @@
       <c r="D23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -895,8 +1021,14 @@
       <c r="D24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -909,8 +1041,14 @@
       <c r="D25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -923,8 +1061,14 @@
       <c r="D26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -937,8 +1081,14 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -951,8 +1101,14 @@
       <c r="D28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -965,8 +1121,14 @@
       <c r="D29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -979,8 +1141,14 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -993,8 +1161,14 @@
       <c r="D31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1007,8 +1181,14 @@
       <c r="D32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1019,6 +1199,12 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E7245E-405F-4D56-8EE0-2DCFAAC01430}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EFABFE-A1D9-41A5-BF6E-0281B2FEF676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="38">
   <si>
     <t>Aluno</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>P/7</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +828,7 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EFABFE-A1D9-41A5-BF6E-0281B2FEF676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE427D7-CC5D-4A3B-9BF8-15D1A161CCC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>P/7</t>
+  </si>
+  <si>
+    <t>P/5</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +613,15 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -630,6 +642,15 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -650,6 +671,15 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -670,6 +700,15 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -690,6 +729,15 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -710,6 +758,15 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -730,6 +787,15 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -750,6 +816,15 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -770,6 +845,15 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -790,6 +874,15 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -810,6 +903,15 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -830,6 +932,15 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -850,6 +961,15 @@
       <c r="F15" t="s">
         <v>36</v>
       </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -870,8 +990,17 @@
       <c r="F16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -890,8 +1019,17 @@
       <c r="F17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -910,8 +1048,17 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -930,8 +1077,17 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -950,8 +1106,17 @@
       <c r="F20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -970,8 +1135,17 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -990,8 +1164,17 @@
       <c r="F22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1193,17 @@
       <c r="F23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1222,17 @@
       <c r="F24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1050,8 +1251,17 @@
       <c r="F25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1070,8 +1280,17 @@
       <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1090,8 +1309,17 @@
       <c r="F27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1110,8 +1338,17 @@
       <c r="F28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1130,8 +1367,17 @@
       <c r="F29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1150,8 +1396,17 @@
       <c r="F30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1170,8 +1425,17 @@
       <c r="F31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1190,8 +1454,17 @@
       <c r="F32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1208,6 +1481,15 @@
         <v>36</v>
       </c>
       <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE427D7-CC5D-4A3B-9BF8-15D1A161CCC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAB73F-1202-4339-A5AC-6C155A86FDBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,6 +622,9 @@
       <c r="I3" t="s">
         <v>36</v>
       </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -651,6 +654,9 @@
       <c r="I4" t="s">
         <v>36</v>
       </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -680,6 +686,9 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -709,6 +718,9 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -738,6 +750,9 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -767,6 +782,9 @@
       <c r="I8" t="s">
         <v>36</v>
       </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -796,6 +814,9 @@
       <c r="I9" t="s">
         <v>36</v>
       </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -825,6 +846,9 @@
       <c r="I10" t="s">
         <v>36</v>
       </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -854,6 +878,9 @@
       <c r="I11" t="s">
         <v>36</v>
       </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -883,6 +910,9 @@
       <c r="I12" t="s">
         <v>36</v>
       </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -912,6 +942,9 @@
       <c r="I13" t="s">
         <v>36</v>
       </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -941,6 +974,9 @@
       <c r="I14" t="s">
         <v>36</v>
       </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -970,6 +1006,9 @@
       <c r="I15" t="s">
         <v>36</v>
       </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -999,8 +1038,11 @@
       <c r="I16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1028,8 +1070,11 @@
       <c r="I17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1057,8 +1102,11 @@
       <c r="I18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1086,8 +1134,11 @@
       <c r="I19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1115,8 +1166,11 @@
       <c r="I20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1144,8 +1198,11 @@
       <c r="I21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1173,8 +1230,11 @@
       <c r="I22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1202,8 +1262,11 @@
       <c r="I23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1231,8 +1294,11 @@
       <c r="I24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1260,8 +1326,11 @@
       <c r="I25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1358,11 @@
       <c r="I26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1318,8 +1390,11 @@
       <c r="I27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1347,8 +1422,11 @@
       <c r="I28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1376,8 +1454,11 @@
       <c r="I29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1405,8 +1486,11 @@
       <c r="I30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1434,8 +1518,11 @@
       <c r="I31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1463,8 +1550,11 @@
       <c r="I32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1490,6 +1580,9 @@
         <v>36</v>
       </c>
       <c r="I33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAAB73F-1202-4339-A5AC-6C155A86FDBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2DD237-2514-4721-88AB-78168F0534D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2DD237-2514-4721-88AB-78168F0534D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE60397-DA67-4B7F-866C-49B4A9E8CABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,6 +625,12 @@
       <c r="J3" t="s">
         <v>36</v>
       </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -657,6 +663,12 @@
       <c r="J4" t="s">
         <v>36</v>
       </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -689,6 +701,12 @@
       <c r="J5" t="s">
         <v>35</v>
       </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -721,6 +739,12 @@
       <c r="J6" t="s">
         <v>36</v>
       </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -753,6 +777,12 @@
       <c r="J7" t="s">
         <v>36</v>
       </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -785,6 +815,12 @@
       <c r="J8" t="s">
         <v>36</v>
       </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -817,6 +853,12 @@
       <c r="J9" t="s">
         <v>36</v>
       </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -849,6 +891,12 @@
       <c r="J10" t="s">
         <v>36</v>
       </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -881,6 +929,12 @@
       <c r="J11" t="s">
         <v>36</v>
       </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -913,6 +967,12 @@
       <c r="J12" t="s">
         <v>36</v>
       </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -945,6 +1005,12 @@
       <c r="J13" t="s">
         <v>36</v>
       </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -977,6 +1043,12 @@
       <c r="J14" t="s">
         <v>36</v>
       </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1009,6 +1081,12 @@
       <c r="J15" t="s">
         <v>36</v>
       </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1041,8 +1119,14 @@
       <c r="J16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1073,8 +1157,14 @@
       <c r="J17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1105,8 +1195,14 @@
       <c r="J18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1137,8 +1233,14 @@
       <c r="J19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1169,8 +1271,14 @@
       <c r="J20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1201,8 +1309,14 @@
       <c r="J21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1233,8 +1347,14 @@
       <c r="J22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1248,10 +1368,10 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -1260,13 +1380,19 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="K23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1297,8 +1423,14 @@
       <c r="J24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1329,8 +1461,14 @@
       <c r="J25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1361,8 +1499,14 @@
       <c r="J26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1393,8 +1537,14 @@
       <c r="J27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1425,8 +1575,14 @@
       <c r="J28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1457,8 +1613,14 @@
       <c r="J29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1489,8 +1651,14 @@
       <c r="J30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1521,8 +1689,14 @@
       <c r="J31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1553,8 +1727,14 @@
       <c r="J32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1583,6 +1763,12 @@
         <v>36</v>
       </c>
       <c r="J33" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE60397-DA67-4B7F-866C-49B4A9E8CABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33A2EE-E78F-4A2C-A2F1-3DB5C5ACABA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +631,9 @@
       <c r="L3" t="s">
         <v>36</v>
       </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -669,6 +672,9 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -707,6 +713,9 @@
       <c r="L5" t="s">
         <v>36</v>
       </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -745,6 +754,9 @@
       <c r="L6" t="s">
         <v>35</v>
       </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -783,6 +795,9 @@
       <c r="L7" t="s">
         <v>36</v>
       </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -821,6 +836,9 @@
       <c r="L8" t="s">
         <v>36</v>
       </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -859,6 +877,9 @@
       <c r="L9" t="s">
         <v>36</v>
       </c>
+      <c r="M9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -897,6 +918,9 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -935,6 +959,9 @@
       <c r="L11" t="s">
         <v>36</v>
       </c>
+      <c r="M11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -973,6 +1000,9 @@
       <c r="L12" t="s">
         <v>36</v>
       </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1011,6 +1041,9 @@
       <c r="L13" t="s">
         <v>36</v>
       </c>
+      <c r="M13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1049,6 +1082,9 @@
       <c r="L14" t="s">
         <v>36</v>
       </c>
+      <c r="M14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1087,6 +1123,9 @@
       <c r="L15" t="s">
         <v>36</v>
       </c>
+      <c r="M15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1125,8 +1164,11 @@
       <c r="L16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1163,8 +1205,11 @@
       <c r="L17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1201,8 +1246,11 @@
       <c r="L18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1239,8 +1287,11 @@
       <c r="L19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1277,8 +1328,11 @@
       <c r="L20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1369,11 @@
       <c r="L21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1353,8 +1410,11 @@
       <c r="L22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1451,11 @@
       <c r="L23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1429,8 +1492,11 @@
       <c r="L24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1467,8 +1533,11 @@
       <c r="L25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1505,8 +1574,11 @@
       <c r="L26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1543,8 +1615,11 @@
       <c r="L27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1581,8 +1656,11 @@
       <c r="L28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1619,8 +1697,11 @@
       <c r="L29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1657,8 +1738,11 @@
       <c r="L30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1695,8 +1779,11 @@
       <c r="L31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1733,8 +1820,11 @@
       <c r="L32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1769,6 +1859,9 @@
         <v>36</v>
       </c>
       <c r="L33" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33A2EE-E78F-4A2C-A2F1-3DB5C5ACABA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A889A-9BAF-4E34-9853-ADEEB8E235F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88A889A-9BAF-4E34-9853-ADEEB8E235F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A390BB-BC27-43F3-B679-73CE94B516AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -177,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +478,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,6 +635,12 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -675,6 +682,12 @@
       <c r="M4" t="s">
         <v>36</v>
       </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -716,6 +729,12 @@
       <c r="M5" t="s">
         <v>36</v>
       </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -757,6 +776,12 @@
       <c r="M6" t="s">
         <v>36</v>
       </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -798,6 +823,12 @@
       <c r="M7" t="s">
         <v>36</v>
       </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -839,6 +870,12 @@
       <c r="M8" t="s">
         <v>36</v>
       </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -880,6 +917,12 @@
       <c r="M9" t="s">
         <v>36</v>
       </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -921,6 +964,12 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -962,6 +1011,12 @@
       <c r="M11" t="s">
         <v>36</v>
       </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1003,6 +1058,12 @@
       <c r="M12" t="s">
         <v>36</v>
       </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1044,6 +1105,12 @@
       <c r="M13" t="s">
         <v>36</v>
       </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1085,6 +1152,12 @@
       <c r="M14" t="s">
         <v>36</v>
       </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1126,6 +1199,12 @@
       <c r="M15" t="s">
         <v>36</v>
       </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1167,8 +1246,14 @@
       <c r="M16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1208,8 +1293,14 @@
       <c r="M17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1249,8 +1340,14 @@
       <c r="M18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1290,8 +1387,14 @@
       <c r="M19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1331,8 +1434,14 @@
       <c r="M20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1372,8 +1481,14 @@
       <c r="M21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1413,8 +1528,14 @@
       <c r="M22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1454,8 +1575,14 @@
       <c r="M23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1495,8 +1622,14 @@
       <c r="M24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1536,8 +1669,14 @@
       <c r="M25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1577,8 +1716,14 @@
       <c r="M26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1618,8 +1763,14 @@
       <c r="M27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1659,8 +1810,14 @@
       <c r="M28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1700,8 +1857,14 @@
       <c r="M29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1741,8 +1904,14 @@
       <c r="M30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1951,14 @@
       <c r="M31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1823,8 +1998,14 @@
       <c r="M32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1862,6 +2043,12 @@
         <v>36</v>
       </c>
       <c r="M33" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A390BB-BC27-43F3-B679-73CE94B516AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D13878-666F-4782-BD65-C2D3F8CDF067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="39">
   <si>
     <t>Aluno</t>
   </si>
@@ -474,11 +474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,6 +641,9 @@
       <c r="O3" t="s">
         <v>35</v>
       </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -688,6 +691,9 @@
       <c r="O4" t="s">
         <v>36</v>
       </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -735,6 +741,9 @@
       <c r="O5" t="s">
         <v>36</v>
       </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -782,6 +791,9 @@
       <c r="O6" t="s">
         <v>36</v>
       </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -829,6 +841,9 @@
       <c r="O7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="P7" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -876,6 +891,9 @@
       <c r="O8" t="s">
         <v>36</v>
       </c>
+      <c r="P8" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -923,6 +941,9 @@
       <c r="O9" t="s">
         <v>36</v>
       </c>
+      <c r="P9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -970,6 +991,9 @@
       <c r="O10" t="s">
         <v>36</v>
       </c>
+      <c r="P10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1017,6 +1041,9 @@
       <c r="O11" t="s">
         <v>36</v>
       </c>
+      <c r="P11" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1064,6 +1091,9 @@
       <c r="O12" t="s">
         <v>35</v>
       </c>
+      <c r="P12" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1111,6 +1141,9 @@
       <c r="O13" t="s">
         <v>36</v>
       </c>
+      <c r="P13" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1158,6 +1191,9 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
+      <c r="P14" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1205,6 +1241,9 @@
       <c r="O15" t="s">
         <v>36</v>
       </c>
+      <c r="P15" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1252,8 +1291,11 @@
       <c r="O16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1299,8 +1341,11 @@
       <c r="O17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1346,8 +1391,11 @@
       <c r="O18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1393,8 +1441,11 @@
       <c r="O19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1440,8 +1491,11 @@
       <c r="O20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1487,8 +1541,11 @@
       <c r="O21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1534,8 +1591,11 @@
       <c r="O22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1581,8 +1641,11 @@
       <c r="O23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1628,8 +1691,11 @@
       <c r="O24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1675,8 +1741,11 @@
       <c r="O25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1722,8 +1791,11 @@
       <c r="O26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1769,8 +1841,11 @@
       <c r="O27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1816,8 +1891,11 @@
       <c r="O28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1863,8 +1941,11 @@
       <c r="O29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1910,8 +1991,11 @@
       <c r="O30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1957,8 +2041,11 @@
       <c r="O31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2004,8 +2091,11 @@
       <c r="O32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2049,6 +2139,9 @@
         <v>36</v>
       </c>
       <c r="O33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D13878-666F-4782-BD65-C2D3F8CDF067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A6EEC-B552-4B94-BA91-32F67480FDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="40">
   <si>
     <t>Aluno</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>P/5</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
   </si>
 </sst>
 </file>
@@ -474,11 +477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +490,7 @@
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -644,6 +648,12 @@
       <c r="P3" t="s">
         <v>36</v>
       </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -694,6 +704,12 @@
       <c r="P4" t="s">
         <v>36</v>
       </c>
+      <c r="Q4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -744,6 +760,12 @@
       <c r="P5" t="s">
         <v>36</v>
       </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -794,6 +816,12 @@
       <c r="P6" t="s">
         <v>35</v>
       </c>
+      <c r="Q6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -844,6 +872,12 @@
       <c r="P7" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -894,6 +928,12 @@
       <c r="P8" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -944,6 +984,12 @@
       <c r="P9" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -994,6 +1040,12 @@
       <c r="P10" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1044,6 +1096,12 @@
       <c r="P11" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1094,6 +1152,12 @@
       <c r="P12" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1144,6 +1208,12 @@
       <c r="P13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1194,6 +1264,12 @@
       <c r="P14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1244,6 +1320,12 @@
       <c r="P15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1294,8 +1376,14 @@
       <c r="P16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1344,8 +1432,14 @@
       <c r="P17" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1394,8 +1488,14 @@
       <c r="P18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1444,8 +1544,14 @@
       <c r="P19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1600,14 @@
       <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1544,8 +1656,14 @@
       <c r="P21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1594,8 +1712,14 @@
       <c r="P22" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1644,8 +1768,14 @@
       <c r="P23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1694,8 +1824,14 @@
       <c r="P24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1744,8 +1880,14 @@
       <c r="P25" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1794,8 +1936,14 @@
       <c r="P26" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>39</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1844,8 +1992,14 @@
       <c r="P27" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1894,8 +2048,14 @@
       <c r="P28" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1944,8 +2104,14 @@
       <c r="P29" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1994,8 +2160,14 @@
       <c r="P30" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2044,8 +2216,14 @@
       <c r="P31" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2094,8 +2272,14 @@
       <c r="P32" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2142,6 +2326,12 @@
         <v>36</v>
       </c>
       <c r="P33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A6EEC-B552-4B94-BA91-32F67480FDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F240DA30-460E-4C25-9149-AEC926890E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="41">
   <si>
     <t>Aluno</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t>5/P</t>
   </si>
 </sst>
 </file>
@@ -475,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +496,7 @@
     <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -542,8 +545,14 @@
       <c r="R1" s="1">
         <v>45551</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1">
+        <v>45555</v>
+      </c>
+      <c r="T1" s="1">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -598,8 +607,14 @@
       <c r="R2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -654,8 +669,14 @@
       <c r="R3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -710,8 +731,14 @@
       <c r="R4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -766,8 +793,14 @@
       <c r="R5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -822,8 +855,14 @@
       <c r="R6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -878,8 +917,14 @@
       <c r="R7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -934,8 +979,14 @@
       <c r="R8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -990,8 +1041,14 @@
       <c r="R9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1046,8 +1103,14 @@
       <c r="R10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1102,8 +1165,14 @@
       <c r="R11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1158,8 +1227,14 @@
       <c r="R12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1214,8 +1289,14 @@
       <c r="R13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1270,8 +1351,14 @@
       <c r="R14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1413,14 @@
       <c r="R15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1382,8 +1475,14 @@
       <c r="R16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1438,8 +1537,14 @@
       <c r="R17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1494,8 +1599,14 @@
       <c r="R18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1550,8 +1661,14 @@
       <c r="R19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1606,8 +1723,14 @@
       <c r="R20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1662,8 +1785,14 @@
       <c r="R21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1718,8 +1847,14 @@
       <c r="R22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1772,10 +1907,16 @@
         <v>39</v>
       </c>
       <c r="R23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1830,8 +1971,14 @@
       <c r="R24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1886,8 +2033,14 @@
       <c r="R25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1942,8 +2095,14 @@
       <c r="R26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1998,8 +2157,14 @@
       <c r="R27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2054,8 +2219,14 @@
       <c r="R28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2110,8 +2281,14 @@
       <c r="R29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2166,8 +2343,14 @@
       <c r="R30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2222,8 +2405,14 @@
       <c r="R31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2278,8 +2467,14 @@
       <c r="R32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2332,6 +2527,12 @@
         <v>39</v>
       </c>
       <c r="R33" t="s">
+        <v>36</v>
+      </c>
+      <c r="S33" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BA0A3-7D5B-4161-AA40-D442CFF28F73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A1B71-9A82-48BD-803C-33490F4E8D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>5/P</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -488,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +509,7 @@
     <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -567,8 +570,11 @@
       <c r="V1" s="1">
         <v>45565</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="1">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -629,14 +635,17 @@
       <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="U2">
-        <v>27</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -703,8 +712,11 @@
       <c r="V3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -771,8 +783,11 @@
       <c r="V4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -839,8 +854,11 @@
       <c r="V5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -907,8 +925,11 @@
       <c r="V6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -975,8 +996,11 @@
       <c r="V7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1067,11 @@
       <c r="V8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1111,8 +1138,11 @@
       <c r="V9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1179,8 +1209,11 @@
       <c r="V10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1247,8 +1280,11 @@
       <c r="V11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1315,8 +1351,11 @@
       <c r="V12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1383,8 +1422,11 @@
       <c r="V13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1451,8 +1493,11 @@
       <c r="V14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1519,8 +1564,11 @@
       <c r="V15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1587,8 +1635,11 @@
       <c r="V16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1655,8 +1706,11 @@
       <c r="V17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1723,8 +1777,11 @@
       <c r="V18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1791,8 +1848,11 @@
       <c r="V19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1859,8 +1919,11 @@
       <c r="V20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1927,8 +1990,11 @@
       <c r="V21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1995,8 +2061,11 @@
       <c r="V22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2063,8 +2132,11 @@
       <c r="V23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2131,8 +2203,11 @@
       <c r="V24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2199,8 +2274,11 @@
       <c r="V25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2267,8 +2345,11 @@
       <c r="V26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2335,8 +2416,11 @@
       <c r="V27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2403,8 +2487,11 @@
       <c r="V28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2471,8 +2558,11 @@
       <c r="V29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2539,8 +2629,11 @@
       <c r="V30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2607,8 +2700,11 @@
       <c r="V31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2675,8 +2771,11 @@
       <c r="V32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2741,6 +2840,9 @@
         <v>36</v>
       </c>
       <c r="V33" t="s">
+        <v>36</v>
+      </c>
+      <c r="W33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2748,7 +2850,7 @@
   <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
-  <conditionalFormatting sqref="C3:U33 W3:CV33">
+  <conditionalFormatting sqref="C3:U33 W7:CV33 Y3:CV6 W3:W6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A1B71-9A82-48BD-803C-33490F4E8D66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAD5658-8BB6-4E38-90D8-F099D7A9420E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,25 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W23" sqref="W23"/>
+      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -573,8 +577,11 @@
       <c r="W1" s="1">
         <v>45569</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="1">
+        <v>45358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,8 +651,11 @@
       <c r="W2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -715,8 +725,11 @@
       <c r="W3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -786,8 +799,11 @@
       <c r="W4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -857,8 +873,11 @@
       <c r="W5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -928,8 +947,11 @@
       <c r="W6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -999,8 +1021,11 @@
       <c r="W7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1070,8 +1095,11 @@
       <c r="W8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1141,8 +1169,11 @@
       <c r="W9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1212,8 +1243,11 @@
       <c r="W10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1283,8 +1317,11 @@
       <c r="W11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1354,8 +1391,11 @@
       <c r="W12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1465,11 @@
       <c r="W13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1496,8 +1539,11 @@
       <c r="W14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1567,8 +1613,11 @@
       <c r="W15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1638,8 +1687,11 @@
       <c r="W16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1709,8 +1761,11 @@
       <c r="W17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1780,8 +1835,11 @@
       <c r="W18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1851,8 +1909,11 @@
       <c r="W19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1922,8 +1983,11 @@
       <c r="W20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="W21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2131,11 @@
       <c r="W22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2135,8 +2205,11 @@
       <c r="W23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2206,8 +2279,11 @@
       <c r="W24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2277,8 +2353,11 @@
       <c r="W25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2348,8 +2427,11 @@
       <c r="W26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2419,8 +2501,11 @@
       <c r="W27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2490,8 +2575,11 @@
       <c r="W28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2561,8 +2649,11 @@
       <c r="W29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2632,8 +2723,11 @@
       <c r="W30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2703,8 +2797,11 @@
       <c r="W31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2774,8 +2871,11 @@
       <c r="W32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2843,6 +2943,9 @@
         <v>36</v>
       </c>
       <c r="W33" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2850,7 +2953,7 @@
   <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
-  <conditionalFormatting sqref="C3:U33 W7:CV33 Y3:CV6 W3:W6">
+  <conditionalFormatting sqref="C3:U33 W3:CV33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAD5658-8BB6-4E38-90D8-F099D7A9420E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA7432-3303-47DE-8DFF-13252DFC65F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,29 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -580,8 +580,11 @@
       <c r="X1" s="1">
         <v>45358</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -654,8 +657,11 @@
       <c r="X2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -728,8 +734,11 @@
       <c r="X3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -802,8 +811,11 @@
       <c r="X4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -876,8 +888,11 @@
       <c r="X5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -950,8 +965,11 @@
       <c r="X6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1024,8 +1042,11 @@
       <c r="X7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1098,8 +1119,11 @@
       <c r="X8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1172,8 +1196,11 @@
       <c r="X9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1246,8 +1273,11 @@
       <c r="X10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1350,11 @@
       <c r="X11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1394,8 +1427,11 @@
       <c r="X12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1468,8 +1504,11 @@
       <c r="X13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1542,8 +1581,11 @@
       <c r="X14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1616,8 +1658,11 @@
       <c r="X15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1690,8 +1735,11 @@
       <c r="X16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1764,8 +1812,11 @@
       <c r="X17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1838,8 +1889,11 @@
       <c r="X18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1912,8 +1966,11 @@
       <c r="X19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1986,8 +2043,11 @@
       <c r="X20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2060,8 +2120,11 @@
       <c r="X21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2134,8 +2197,11 @@
       <c r="X22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2208,8 +2274,11 @@
       <c r="X23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2282,8 +2351,11 @@
       <c r="X24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2356,8 +2428,11 @@
       <c r="X25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2430,8 +2505,11 @@
       <c r="X26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2582,11 @@
       <c r="X27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2578,8 +2659,11 @@
       <c r="X28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2652,8 +2736,11 @@
       <c r="X29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2726,8 +2813,11 @@
       <c r="X30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2800,8 +2890,11 @@
       <c r="X31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2874,8 +2967,11 @@
       <c r="X32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2946,6 +3042,9 @@
         <v>36</v>
       </c>
       <c r="X33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093206\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA7432-3303-47DE-8DFF-13252DFC65F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997523F-CA75-413C-BEB1-EEE5834A789E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,29 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y28" sqref="Y28"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -583,8 +583,11 @@
       <c r="Y1" s="1">
         <v>45576</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" s="1">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +663,11 @@
       <c r="Y2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -737,8 +743,11 @@
       <c r="Y3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -814,8 +823,11 @@
       <c r="Y4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -891,8 +903,11 @@
       <c r="Y5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -968,8 +983,11 @@
       <c r="Y6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1045,8 +1063,11 @@
       <c r="Y7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1122,8 +1143,11 @@
       <c r="Y8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1199,8 +1223,11 @@
       <c r="Y9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1276,8 +1303,11 @@
       <c r="Y10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1383,11 @@
       <c r="Y11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1430,8 +1463,11 @@
       <c r="Y12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1507,8 +1543,11 @@
       <c r="Y13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1623,11 @@
       <c r="Y14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1661,8 +1703,11 @@
       <c r="Y15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1738,8 +1783,11 @@
       <c r="Y16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1815,8 +1863,11 @@
       <c r="Y17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1892,8 +1943,11 @@
       <c r="Y18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1969,8 +2023,11 @@
       <c r="Y19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2046,8 +2103,11 @@
       <c r="Y20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2123,8 +2183,11 @@
       <c r="Y21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2200,8 +2263,11 @@
       <c r="Y22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2277,8 +2343,11 @@
       <c r="Y23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2354,8 +2423,11 @@
       <c r="Y24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2431,8 +2503,11 @@
       <c r="Y25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2508,8 +2583,11 @@
       <c r="Y26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2585,8 +2663,11 @@
       <c r="Y27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2662,8 +2743,11 @@
       <c r="Y28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2739,8 +2823,11 @@
       <c r="Y29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2816,8 +2903,11 @@
       <c r="Y30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2893,8 +2983,11 @@
       <c r="Y31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2970,8 +3063,11 @@
       <c r="Y32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3045,6 +3141,9 @@
         <v>36</v>
       </c>
       <c r="Y33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093206\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B997523F-CA75-413C-BEB1-EEE5834A789E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C9F83-57EB-44C8-888D-6F524FF7EC31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
     <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -586,8 +586,11 @@
       <c r="Z1" s="1">
         <v>45583</v>
       </c>
+      <c r="AA1" s="1">
+        <v>45586</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,8 +669,11 @@
       <c r="Z2" t="s">
         <v>33</v>
       </c>
+      <c r="AA2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -746,8 +752,11 @@
       <c r="Z3" t="s">
         <v>36</v>
       </c>
+      <c r="AA3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -826,8 +835,11 @@
       <c r="Z4" t="s">
         <v>36</v>
       </c>
+      <c r="AA4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -906,8 +918,11 @@
       <c r="Z5" t="s">
         <v>36</v>
       </c>
+      <c r="AA5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -986,8 +1001,11 @@
       <c r="Z6" t="s">
         <v>35</v>
       </c>
+      <c r="AA6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1066,8 +1084,11 @@
       <c r="Z7" t="s">
         <v>36</v>
       </c>
+      <c r="AA7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1146,8 +1167,11 @@
       <c r="Z8" t="s">
         <v>36</v>
       </c>
+      <c r="AA8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1226,8 +1250,11 @@
       <c r="Z9" t="s">
         <v>36</v>
       </c>
+      <c r="AA9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1306,8 +1333,11 @@
       <c r="Z10" t="s">
         <v>36</v>
       </c>
+      <c r="AA10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1416,11 @@
       <c r="Z11" t="s">
         <v>36</v>
       </c>
+      <c r="AA11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1466,8 +1499,11 @@
       <c r="Z12" t="s">
         <v>36</v>
       </c>
+      <c r="AA12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1546,8 +1582,11 @@
       <c r="Z13" t="s">
         <v>36</v>
       </c>
+      <c r="AA13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1626,8 +1665,11 @@
       <c r="Z14" t="s">
         <v>36</v>
       </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1706,8 +1748,11 @@
       <c r="Z15" t="s">
         <v>36</v>
       </c>
+      <c r="AA15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1786,8 +1831,11 @@
       <c r="Z16" t="s">
         <v>36</v>
       </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1866,8 +1914,11 @@
       <c r="Z17" t="s">
         <v>36</v>
       </c>
+      <c r="AA17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1946,8 +1997,11 @@
       <c r="Z18" t="s">
         <v>36</v>
       </c>
+      <c r="AA18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2026,8 +2080,11 @@
       <c r="Z19" t="s">
         <v>36</v>
       </c>
+      <c r="AA19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2106,8 +2163,11 @@
       <c r="Z20" t="s">
         <v>36</v>
       </c>
+      <c r="AA20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2186,8 +2246,11 @@
       <c r="Z21" t="s">
         <v>36</v>
       </c>
+      <c r="AA21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2266,8 +2329,11 @@
       <c r="Z22" t="s">
         <v>36</v>
       </c>
+      <c r="AA22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2346,8 +2412,11 @@
       <c r="Z23" t="s">
         <v>35</v>
       </c>
+      <c r="AA23" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2426,8 +2495,11 @@
       <c r="Z24" t="s">
         <v>36</v>
       </c>
+      <c r="AA24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2506,8 +2578,11 @@
       <c r="Z25" t="s">
         <v>36</v>
       </c>
+      <c r="AA25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2586,8 +2661,11 @@
       <c r="Z26" t="s">
         <v>36</v>
       </c>
+      <c r="AA26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2666,8 +2744,11 @@
       <c r="Z27" t="s">
         <v>36</v>
       </c>
+      <c r="AA27" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2746,8 +2827,11 @@
       <c r="Z28" t="s">
         <v>36</v>
       </c>
+      <c r="AA28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2826,8 +2910,11 @@
       <c r="Z29" t="s">
         <v>36</v>
       </c>
+      <c r="AA29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2906,8 +2993,11 @@
       <c r="Z30" t="s">
         <v>36</v>
       </c>
+      <c r="AA30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3076,11 @@
       <c r="Z31" t="s">
         <v>36</v>
       </c>
+      <c r="AA31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3066,8 +3159,11 @@
       <c r="Z32" t="s">
         <v>36</v>
       </c>
+      <c r="AA32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3144,6 +3240,9 @@
         <v>36</v>
       </c>
       <c r="Z33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3151,7 +3250,7 @@
   <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
-  <conditionalFormatting sqref="C3:U33 W3:CV33">
+  <conditionalFormatting sqref="C3:U33 W3:CV33 AA34">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1093206\Documents\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Lucas\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C9F83-57EB-44C8-888D-6F524FF7EC31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329FD70-CC49-4814-AF66-09023B9E1C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,29 +491,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomRight" activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -589,8 +589,14 @@
       <c r="AA1" s="1">
         <v>45586</v>
       </c>
+      <c r="AB1" s="1">
+        <v>45590</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45593</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +678,14 @@
       <c r="AA2" t="s">
         <v>34</v>
       </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -755,8 +767,14 @@
       <c r="AA3" t="s">
         <v>36</v>
       </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -838,8 +856,14 @@
       <c r="AA4" t="s">
         <v>36</v>
       </c>
+      <c r="AB4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -921,8 +945,14 @@
       <c r="AA5" t="s">
         <v>36</v>
       </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1004,8 +1034,14 @@
       <c r="AA6" t="s">
         <v>36</v>
       </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1087,8 +1123,14 @@
       <c r="AA7" t="s">
         <v>36</v>
       </c>
+      <c r="AB7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1170,8 +1212,14 @@
       <c r="AA8" t="s">
         <v>36</v>
       </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1301,14 @@
       <c r="AA9" t="s">
         <v>36</v>
       </c>
+      <c r="AB9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1336,8 +1390,14 @@
       <c r="AA10" t="s">
         <v>36</v>
       </c>
+      <c r="AB10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1419,8 +1479,14 @@
       <c r="AA11" t="s">
         <v>36</v>
       </c>
+      <c r="AB11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1502,8 +1568,14 @@
       <c r="AA12" t="s">
         <v>36</v>
       </c>
+      <c r="AB12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1585,8 +1657,14 @@
       <c r="AA13" t="s">
         <v>36</v>
       </c>
+      <c r="AB13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1668,8 +1746,14 @@
       <c r="AA14" t="s">
         <v>36</v>
       </c>
+      <c r="AB14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1751,8 +1835,14 @@
       <c r="AA15" t="s">
         <v>36</v>
       </c>
+      <c r="AB15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1834,8 +1924,14 @@
       <c r="AA16" t="s">
         <v>36</v>
       </c>
+      <c r="AB16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1917,8 +2013,14 @@
       <c r="AA17" t="s">
         <v>36</v>
       </c>
+      <c r="AB17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2000,8 +2102,14 @@
       <c r="AA18" t="s">
         <v>36</v>
       </c>
+      <c r="AB18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2083,8 +2191,14 @@
       <c r="AA19" t="s">
         <v>36</v>
       </c>
+      <c r="AB19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2166,8 +2280,14 @@
       <c r="AA20" t="s">
         <v>36</v>
       </c>
+      <c r="AB20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2249,8 +2369,14 @@
       <c r="AA21" t="s">
         <v>36</v>
       </c>
+      <c r="AB21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2332,8 +2458,14 @@
       <c r="AA22" t="s">
         <v>36</v>
       </c>
+      <c r="AB22" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2415,8 +2547,14 @@
       <c r="AA23" t="s">
         <v>36</v>
       </c>
+      <c r="AB23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2498,8 +2636,14 @@
       <c r="AA24" t="s">
         <v>36</v>
       </c>
+      <c r="AB24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2581,8 +2725,14 @@
       <c r="AA25" t="s">
         <v>36</v>
       </c>
+      <c r="AB25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2664,8 +2814,14 @@
       <c r="AA26" t="s">
         <v>36</v>
       </c>
+      <c r="AB26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2747,8 +2903,14 @@
       <c r="AA27" t="s">
         <v>36</v>
       </c>
+      <c r="AB27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2830,8 +2992,14 @@
       <c r="AA28" t="s">
         <v>36</v>
       </c>
+      <c r="AB28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -2913,8 +3081,14 @@
       <c r="AA29" t="s">
         <v>36</v>
       </c>
+      <c r="AB29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2996,8 +3170,14 @@
       <c r="AA30" t="s">
         <v>36</v>
       </c>
+      <c r="AB30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3079,8 +3259,14 @@
       <c r="AA31" t="s">
         <v>36</v>
       </c>
+      <c r="AB31" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3162,8 +3348,14 @@
       <c r="AA32" t="s">
         <v>36</v>
       </c>
+      <c r="AB32" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3243,6 +3435,12 @@
         <v>36</v>
       </c>
       <c r="AA33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3250,7 +3448,7 @@
   <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
-  <conditionalFormatting sqref="C3:U33 W3:CV33 AA34">
+  <conditionalFormatting sqref="C3:U33 AA34 W3:CV33">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Lucas\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329FD70-CC49-4814-AF66-09023B9E1C8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A6EAE-008E-4783-8860-B9A9C903A98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC34" sqref="AC34"/>
+      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
     <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -595,8 +595,11 @@
       <c r="AC1" s="1">
         <v>45593</v>
       </c>
+      <c r="AD1" s="1">
+        <v>45597</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -684,8 +687,11 @@
       <c r="AC2" t="s">
         <v>34</v>
       </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -773,8 +779,11 @@
       <c r="AC3" t="s">
         <v>36</v>
       </c>
+      <c r="AD3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -862,8 +871,11 @@
       <c r="AC4" t="s">
         <v>36</v>
       </c>
+      <c r="AD4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -951,8 +963,11 @@
       <c r="AC5" t="s">
         <v>36</v>
       </c>
+      <c r="AD5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1040,8 +1055,11 @@
       <c r="AC6" t="s">
         <v>36</v>
       </c>
+      <c r="AD6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1129,8 +1147,11 @@
       <c r="AC7" t="s">
         <v>36</v>
       </c>
+      <c r="AD7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1218,8 +1239,11 @@
       <c r="AC8" t="s">
         <v>36</v>
       </c>
+      <c r="AD8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1307,8 +1331,11 @@
       <c r="AC9" t="s">
         <v>36</v>
       </c>
+      <c r="AD9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1396,8 +1423,11 @@
       <c r="AC10" t="s">
         <v>36</v>
       </c>
+      <c r="AD10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1485,8 +1515,11 @@
       <c r="AC11" t="s">
         <v>36</v>
       </c>
+      <c r="AD11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1574,8 +1607,11 @@
       <c r="AC12" t="s">
         <v>36</v>
       </c>
+      <c r="AD12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1663,8 +1699,11 @@
       <c r="AC13" t="s">
         <v>36</v>
       </c>
+      <c r="AD13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1752,8 +1791,11 @@
       <c r="AC14" t="s">
         <v>36</v>
       </c>
+      <c r="AD14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1841,8 +1883,11 @@
       <c r="AC15" t="s">
         <v>36</v>
       </c>
+      <c r="AD15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1975,11 @@
       <c r="AC16" t="s">
         <v>36</v>
       </c>
+      <c r="AD16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2019,8 +2067,11 @@
       <c r="AC17" t="s">
         <v>36</v>
       </c>
+      <c r="AD17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2108,8 +2159,11 @@
       <c r="AC18" t="s">
         <v>36</v>
       </c>
+      <c r="AD18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2197,8 +2251,11 @@
       <c r="AC19" t="s">
         <v>36</v>
       </c>
+      <c r="AD19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2286,8 +2343,11 @@
       <c r="AC20" t="s">
         <v>36</v>
       </c>
+      <c r="AD20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2375,8 +2435,11 @@
       <c r="AC21" t="s">
         <v>36</v>
       </c>
+      <c r="AD21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AC22" t="s">
         <v>35</v>
       </c>
+      <c r="AD22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2553,8 +2619,11 @@
       <c r="AC23" t="s">
         <v>36</v>
       </c>
+      <c r="AD23" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2642,8 +2711,11 @@
       <c r="AC24" t="s">
         <v>36</v>
       </c>
+      <c r="AD24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2731,8 +2803,11 @@
       <c r="AC25" t="s">
         <v>36</v>
       </c>
+      <c r="AD25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2820,8 +2895,11 @@
       <c r="AC26" t="s">
         <v>36</v>
       </c>
+      <c r="AD26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2909,8 +2987,11 @@
       <c r="AC27" t="s">
         <v>36</v>
       </c>
+      <c r="AD27" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2998,8 +3079,11 @@
       <c r="AC28" t="s">
         <v>36</v>
       </c>
+      <c r="AD28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3087,8 +3171,11 @@
       <c r="AC29" t="s">
         <v>36</v>
       </c>
+      <c r="AD29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3176,8 +3263,11 @@
       <c r="AC30" t="s">
         <v>36</v>
       </c>
+      <c r="AD30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3265,8 +3355,11 @@
       <c r="AC31" t="s">
         <v>36</v>
       </c>
+      <c r="AD31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3354,8 +3447,11 @@
       <c r="AC32" t="s">
         <v>36</v>
       </c>
+      <c r="AD32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3441,6 +3537,9 @@
         <v>38</v>
       </c>
       <c r="AC33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prof. Lucas\Documents\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13A6EAE-008E-4783-8860-B9A9C903A98D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F49E4CD-EF9E-440B-B18B-74790449C3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD27" sqref="AD27"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,7 +513,7 @@
     <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -598,8 +598,11 @@
       <c r="AD1" s="1">
         <v>45597</v>
       </c>
+      <c r="AE1" s="1">
+        <v>45569</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="AD2" t="s">
         <v>33</v>
       </c>
+      <c r="AE2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -782,8 +788,11 @@
       <c r="AD3" t="s">
         <v>36</v>
       </c>
+      <c r="AE3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -874,8 +883,11 @@
       <c r="AD4" t="s">
         <v>36</v>
       </c>
+      <c r="AE4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -966,8 +978,11 @@
       <c r="AD5" t="s">
         <v>36</v>
       </c>
+      <c r="AE5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1058,8 +1073,11 @@
       <c r="AD6" t="s">
         <v>36</v>
       </c>
+      <c r="AE6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1150,8 +1168,11 @@
       <c r="AD7" t="s">
         <v>36</v>
       </c>
+      <c r="AE7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1242,8 +1263,11 @@
       <c r="AD8" t="s">
         <v>36</v>
       </c>
+      <c r="AE8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1334,8 +1358,11 @@
       <c r="AD9" t="s">
         <v>36</v>
       </c>
+      <c r="AE9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1426,8 +1453,11 @@
       <c r="AD10" t="s">
         <v>36</v>
       </c>
+      <c r="AE10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1518,8 +1548,11 @@
       <c r="AD11" t="s">
         <v>36</v>
       </c>
+      <c r="AE11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1610,8 +1643,11 @@
       <c r="AD12" t="s">
         <v>36</v>
       </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1702,8 +1738,11 @@
       <c r="AD13" t="s">
         <v>36</v>
       </c>
+      <c r="AE13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1794,8 +1833,11 @@
       <c r="AD14" t="s">
         <v>36</v>
       </c>
+      <c r="AE14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1886,8 +1928,11 @@
       <c r="AD15" t="s">
         <v>36</v>
       </c>
+      <c r="AE15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1978,8 +2023,11 @@
       <c r="AD16" t="s">
         <v>36</v>
       </c>
+      <c r="AE16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2070,8 +2118,11 @@
       <c r="AD17" t="s">
         <v>36</v>
       </c>
+      <c r="AE17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2162,8 +2213,11 @@
       <c r="AD18" t="s">
         <v>36</v>
       </c>
+      <c r="AE18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2254,8 +2308,11 @@
       <c r="AD19" t="s">
         <v>36</v>
       </c>
+      <c r="AE19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2346,8 +2403,11 @@
       <c r="AD20" t="s">
         <v>36</v>
       </c>
+      <c r="AE20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2438,8 +2498,11 @@
       <c r="AD21" t="s">
         <v>36</v>
       </c>
+      <c r="AE21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AD22" t="s">
         <v>36</v>
       </c>
+      <c r="AE22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2622,8 +2688,11 @@
       <c r="AD23" t="s">
         <v>36</v>
       </c>
+      <c r="AE23" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2714,8 +2783,11 @@
       <c r="AD24" t="s">
         <v>36</v>
       </c>
+      <c r="AE24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2806,8 +2878,11 @@
       <c r="AD25" t="s">
         <v>36</v>
       </c>
+      <c r="AE25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2898,8 +2973,11 @@
       <c r="AD26" t="s">
         <v>36</v>
       </c>
+      <c r="AE26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -2990,8 +3068,11 @@
       <c r="AD27" t="s">
         <v>36</v>
       </c>
+      <c r="AE27" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3082,8 +3163,11 @@
       <c r="AD28" t="s">
         <v>36</v>
       </c>
+      <c r="AE28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3174,8 +3258,11 @@
       <c r="AD29" t="s">
         <v>36</v>
       </c>
+      <c r="AE29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3266,8 +3353,11 @@
       <c r="AD30" t="s">
         <v>36</v>
       </c>
+      <c r="AE30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3358,8 +3448,11 @@
       <c r="AD31" t="s">
         <v>36</v>
       </c>
+      <c r="AE31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3450,8 +3543,11 @@
       <c r="AD32" t="s">
         <v>36</v>
       </c>
+      <c r="AE32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3540,6 +3636,9 @@
         <v>36</v>
       </c>
       <c r="AD33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F49E4CD-EF9E-440B-B18B-74790449C3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0BCCF8-4C28-40DE-9D94-90A7CE426911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,7 +497,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0BCCF8-4C28-40DE-9D94-90A7CE426911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1F451-F769-400E-B9C2-C9CCA08E059B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE27" sqref="AE27"/>
+      <selection pane="bottomRight" activeCell="AF3" sqref="AF3:AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,9 +511,10 @@
     <col min="18" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -599,10 +600,13 @@
         <v>45597</v>
       </c>
       <c r="AE1" s="1">
-        <v>45569</v>
+        <v>45600</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>45604</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -696,8 +700,11 @@
       <c r="AE2" t="s">
         <v>34</v>
       </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -791,8 +798,11 @@
       <c r="AE3" t="s">
         <v>36</v>
       </c>
+      <c r="AF3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="AE4" t="s">
         <v>36</v>
       </c>
+      <c r="AF4" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -981,8 +994,11 @@
       <c r="AE5" t="s">
         <v>36</v>
       </c>
+      <c r="AF5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1076,8 +1092,11 @@
       <c r="AE6" t="s">
         <v>36</v>
       </c>
+      <c r="AF6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1171,8 +1190,11 @@
       <c r="AE7" t="s">
         <v>36</v>
       </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1266,8 +1288,11 @@
       <c r="AE8" t="s">
         <v>36</v>
       </c>
+      <c r="AF8" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1386,11 @@
       <c r="AE9" t="s">
         <v>36</v>
       </c>
+      <c r="AF9" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1456,8 +1484,11 @@
       <c r="AE10" t="s">
         <v>36</v>
       </c>
+      <c r="AF10" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1582,11 @@
       <c r="AE11" t="s">
         <v>36</v>
       </c>
+      <c r="AF11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1646,8 +1680,11 @@
       <c r="AE12" t="s">
         <v>36</v>
       </c>
+      <c r="AF12" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1741,8 +1778,11 @@
       <c r="AE13" t="s">
         <v>36</v>
       </c>
+      <c r="AF13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1836,8 +1876,11 @@
       <c r="AE14" t="s">
         <v>36</v>
       </c>
+      <c r="AF14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1931,8 +1974,11 @@
       <c r="AE15" t="s">
         <v>36</v>
       </c>
+      <c r="AF15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2026,8 +2072,11 @@
       <c r="AE16" t="s">
         <v>36</v>
       </c>
+      <c r="AF16" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2121,8 +2170,11 @@
       <c r="AE17" t="s">
         <v>36</v>
       </c>
+      <c r="AF17" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2216,8 +2268,11 @@
       <c r="AE18" t="s">
         <v>36</v>
       </c>
+      <c r="AF18" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2366,11 @@
       <c r="AE19" t="s">
         <v>36</v>
       </c>
+      <c r="AF19" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2406,8 +2464,11 @@
       <c r="AE20" t="s">
         <v>36</v>
       </c>
+      <c r="AF20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2501,8 +2562,11 @@
       <c r="AE21" t="s">
         <v>36</v>
       </c>
+      <c r="AF21" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AE22" t="s">
         <v>36</v>
       </c>
+      <c r="AF22" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2691,8 +2758,11 @@
       <c r="AE23" t="s">
         <v>36</v>
       </c>
+      <c r="AF23" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2786,8 +2856,11 @@
       <c r="AE24" t="s">
         <v>36</v>
       </c>
+      <c r="AF24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2881,8 +2954,11 @@
       <c r="AE25" t="s">
         <v>36</v>
       </c>
+      <c r="AF25" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2976,8 +3052,11 @@
       <c r="AE26" t="s">
         <v>36</v>
       </c>
+      <c r="AF26" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3071,8 +3150,11 @@
       <c r="AE27" t="s">
         <v>36</v>
       </c>
+      <c r="AF27" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3166,8 +3248,11 @@
       <c r="AE28" t="s">
         <v>36</v>
       </c>
+      <c r="AF28" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3261,8 +3346,11 @@
       <c r="AE29" t="s">
         <v>36</v>
       </c>
+      <c r="AF29" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3356,8 +3444,11 @@
       <c r="AE30" t="s">
         <v>36</v>
       </c>
+      <c r="AF30" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3451,8 +3542,11 @@
       <c r="AE31" t="s">
         <v>36</v>
       </c>
+      <c r="AF31" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3546,8 +3640,11 @@
       <c r="AE32" t="s">
         <v>36</v>
       </c>
+      <c r="AF32" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3639,6 +3736,9 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1F451-F769-400E-B9C2-C9CCA08E059B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EB09A6-8FEB-46EC-8C7C-6C3D83D366A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
+    <sheet name="alunos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -491,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF3" sqref="AF3:AF33"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +515,7 @@
     <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -605,8 +606,11 @@
       <c r="AF1" s="1">
         <v>45604</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1" s="1">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -703,8 +707,11 @@
       <c r="AF2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -801,8 +808,11 @@
       <c r="AF3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -899,8 +909,11 @@
       <c r="AF4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -997,8 +1010,11 @@
       <c r="AF5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1095,8 +1111,11 @@
       <c r="AF6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1193,8 +1212,11 @@
       <c r="AF7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1291,8 +1313,11 @@
       <c r="AF8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1389,8 +1414,11 @@
       <c r="AF9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1515,11 @@
       <c r="AF10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1616,11 @@
       <c r="AF11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1683,9 +1717,12 @@
       <c r="AF12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="AG12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -1781,8 +1818,11 @@
       <c r="AF13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1879,8 +1919,11 @@
       <c r="AF14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1977,8 +2020,11 @@
       <c r="AF15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2075,8 +2121,11 @@
       <c r="AF16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2173,8 +2222,11 @@
       <c r="AF17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2271,8 +2323,11 @@
       <c r="AF18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2369,8 +2424,11 @@
       <c r="AF19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2467,8 +2525,11 @@
       <c r="AF20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2565,8 +2626,11 @@
       <c r="AF21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AF22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2761,8 +2828,11 @@
       <c r="AF23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2859,8 +2929,11 @@
       <c r="AF24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2957,8 +3030,11 @@
       <c r="AF25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3055,8 +3131,11 @@
       <c r="AF26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3153,8 +3232,11 @@
       <c r="AF27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3251,8 +3333,11 @@
       <c r="AF28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3349,8 +3434,11 @@
       <c r="AF29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3447,8 +3535,11 @@
       <c r="AF30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3545,8 +3636,11 @@
       <c r="AF31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3643,8 +3737,11 @@
       <c r="AF32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3739,6 +3836,9 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG33" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3759,4 +3859,175 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA43B27-548D-428E-B1BF-5E790279A96A}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EB09A6-8FEB-46EC-8C7C-6C3D83D366A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD92F43-8C27-4D3A-940C-7057CFEF3936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -492,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AH34" sqref="AH34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
     <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -610,7 +610,7 @@
         <v>45607</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -811,8 +811,11 @@
       <c r="AG3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -912,8 +915,11 @@
       <c r="AG4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1013,8 +1019,11 @@
       <c r="AG5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1114,8 +1123,11 @@
       <c r="AG6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1215,8 +1227,11 @@
       <c r="AG7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1316,8 +1331,11 @@
       <c r="AG8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1417,8 +1435,11 @@
       <c r="AG9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1518,8 +1539,11 @@
       <c r="AG10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1643,11 @@
       <c r="AG11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1720,8 +1747,11 @@
       <c r="AG12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1821,8 +1851,11 @@
       <c r="AG13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1922,8 +1955,11 @@
       <c r="AG14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2023,8 +2059,11 @@
       <c r="AG15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2163,11 @@
       <c r="AG16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2225,8 +2267,11 @@
       <c r="AG17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2326,8 +2371,11 @@
       <c r="AG18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2427,8 +2475,11 @@
       <c r="AG19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2528,8 +2579,11 @@
       <c r="AG20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2629,8 +2683,11 @@
       <c r="AG21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2730,8 +2787,11 @@
       <c r="AG22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2831,8 +2891,11 @@
       <c r="AG23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2932,8 +2995,11 @@
       <c r="AG24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3033,8 +3099,11 @@
       <c r="AG25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3134,8 +3203,11 @@
       <c r="AG26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3235,8 +3307,11 @@
       <c r="AG27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3336,8 +3411,11 @@
       <c r="AG28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3437,8 +3515,11 @@
       <c r="AG29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3538,8 +3619,11 @@
       <c r="AG30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3639,8 +3723,11 @@
       <c r="AG31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3740,8 +3827,11 @@
       <c r="AG32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3840,6 +3930,9 @@
       </c>
       <c r="AG33" t="s">
         <v>36</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD92F43-8C27-4D3A-940C-7057CFEF3936}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1D3F3-7744-4C07-B62B-593D8AC8C183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="42">
   <si>
     <t>Aluno</t>
   </si>
@@ -492,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH34" sqref="AH34"/>
+      <selection pane="bottomRight" activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +515,7 @@
     <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -609,8 +609,14 @@
       <c r="AG1" s="1">
         <v>45607</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH1" s="1">
+        <v>45614</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -710,8 +716,14 @@
       <c r="AG2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -814,8 +826,11 @@
       <c r="AH3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -918,8 +933,11 @@
       <c r="AH4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1040,11 @@
       <c r="AH5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1126,8 +1147,11 @@
       <c r="AH6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1230,8 +1254,11 @@
       <c r="AH7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1334,8 +1361,11 @@
       <c r="AH8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1438,8 +1468,11 @@
       <c r="AH9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1542,8 +1575,11 @@
       <c r="AH10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1682,11 @@
       <c r="AH11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1750,8 +1789,11 @@
       <c r="AH12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1854,8 +1896,11 @@
       <c r="AH13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1958,8 +2003,11 @@
       <c r="AH14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2062,8 +2110,11 @@
       <c r="AH15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2166,8 +2217,11 @@
       <c r="AH16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2270,8 +2324,11 @@
       <c r="AH17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2374,8 +2431,11 @@
       <c r="AH18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2478,8 +2538,11 @@
       <c r="AH19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2582,8 +2645,11 @@
       <c r="AH20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2686,8 +2752,11 @@
       <c r="AH21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2790,8 +2859,11 @@
       <c r="AH22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2894,8 +2966,11 @@
       <c r="AH23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2998,8 +3073,11 @@
       <c r="AH24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3102,8 +3180,11 @@
       <c r="AH25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3206,8 +3287,11 @@
       <c r="AH26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3310,8 +3394,11 @@
       <c r="AH27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3414,8 +3501,11 @@
       <c r="AH28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3518,8 +3608,11 @@
       <c r="AH29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3622,8 +3715,11 @@
       <c r="AH30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3726,8 +3822,11 @@
       <c r="AH31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3830,8 +3929,11 @@
       <c r="AH32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3933,6 +4035,9 @@
       </c>
       <c r="AH33" t="s">
         <v>35</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C1D3F3-7744-4C07-B62B-593D8AC8C183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9FE5C-FC42-40BF-940C-82DD9F129DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>2/P</t>
   </si>
 </sst>
 </file>
@@ -492,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK14" sqref="AK14"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +518,7 @@
     <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -615,8 +618,11 @@
       <c r="AI1" s="1">
         <v>45618</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ1" s="1">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -722,8 +728,11 @@
       <c r="AI2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -829,8 +838,11 @@
       <c r="AI3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -936,8 +948,11 @@
       <c r="AI4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1058,11 @@
       <c r="AI5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1148,10 +1166,13 @@
         <v>36</v>
       </c>
       <c r="AI6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1257,8 +1278,11 @@
       <c r="AI7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1364,8 +1388,11 @@
       <c r="AI8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1471,8 +1498,11 @@
       <c r="AI9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1578,8 +1608,11 @@
       <c r="AI10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1685,8 +1718,11 @@
       <c r="AI11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1792,8 +1828,11 @@
       <c r="AI12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AJ12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1899,8 +1938,11 @@
       <c r="AI13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2006,8 +2048,11 @@
       <c r="AI14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2113,8 +2158,11 @@
       <c r="AI15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2220,8 +2268,11 @@
       <c r="AI16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2327,8 +2378,11 @@
       <c r="AI17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2434,8 +2488,11 @@
       <c r="AI18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2541,8 +2598,11 @@
       <c r="AI19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2648,8 +2708,11 @@
       <c r="AI20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2755,8 +2818,11 @@
       <c r="AI21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2862,8 +2928,11 @@
       <c r="AI22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2969,8 +3038,11 @@
       <c r="AI23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3076,8 +3148,11 @@
       <c r="AI24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3183,8 +3258,11 @@
       <c r="AI25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3290,8 +3368,11 @@
       <c r="AI26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3397,8 +3478,11 @@
       <c r="AI27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3504,8 +3588,11 @@
       <c r="AI28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3611,8 +3698,11 @@
       <c r="AI29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3718,8 +3808,11 @@
       <c r="AI30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3825,8 +3918,11 @@
       <c r="AI31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3932,8 +4028,11 @@
       <c r="AI32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4038,6 +4137,9 @@
       </c>
       <c r="AI33" t="s">
         <v>36</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E9FE5C-FC42-40BF-940C-82DD9F129DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EE9258-9F87-4309-8817-DDBA350F8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -190,10 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,30 +494,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AK33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="AK34" sqref="AK34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -621,8 +620,11 @@
       <c r="AJ1" s="1">
         <v>45621</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK1" s="1">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -731,8 +733,11 @@
       <c r="AJ2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -841,8 +846,11 @@
       <c r="AJ3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -951,8 +959,11 @@
       <c r="AJ4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1061,8 +1072,11 @@
       <c r="AJ5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1171,8 +1185,11 @@
       <c r="AJ6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1215,10 +1232,10 @@
       <c r="N7" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="O7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" t="s">
         <v>36</v>
       </c>
       <c r="Q7" t="s">
@@ -1281,8 +1298,11 @@
       <c r="AJ7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1348,7 @@
       <c r="O8" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" t="s">
         <v>36</v>
       </c>
       <c r="Q8" t="s">
@@ -1391,8 +1411,11 @@
       <c r="AJ8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1461,7 @@
       <c r="O9" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" t="s">
         <v>36</v>
       </c>
       <c r="Q9" t="s">
@@ -1501,8 +1524,11 @@
       <c r="AJ9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1574,7 @@
       <c r="O10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" t="s">
         <v>36</v>
       </c>
       <c r="Q10" t="s">
@@ -1611,8 +1637,11 @@
       <c r="AJ10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1687,7 @@
       <c r="O11" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" t="s">
         <v>36</v>
       </c>
       <c r="Q11" t="s">
@@ -1721,8 +1750,11 @@
       <c r="AJ11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +1800,7 @@
       <c r="O12" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" t="s">
         <v>36</v>
       </c>
       <c r="Q12" t="s">
@@ -1831,9 +1863,12 @@
       <c r="AJ12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="AK12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13">
@@ -1878,7 +1913,7 @@
       <c r="O13" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
       <c r="Q13" t="s">
@@ -1941,8 +1976,11 @@
       <c r="AJ13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1988,7 +2026,7 @@
       <c r="O14" t="s">
         <v>36</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" t="s">
         <v>35</v>
       </c>
       <c r="Q14" t="s">
@@ -2051,8 +2089,11 @@
       <c r="AJ14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2098,7 +2139,7 @@
       <c r="O15" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" t="s">
         <v>36</v>
       </c>
       <c r="Q15" t="s">
@@ -2161,8 +2202,11 @@
       <c r="AJ15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2208,7 +2252,7 @@
       <c r="O16" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" t="s">
         <v>36</v>
       </c>
       <c r="Q16" t="s">
@@ -2271,8 +2315,11 @@
       <c r="AJ16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2318,7 +2365,7 @@
       <c r="O17" t="s">
         <v>36</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" t="s">
         <v>36</v>
       </c>
       <c r="Q17" t="s">
@@ -2381,8 +2428,11 @@
       <c r="AJ17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2428,7 +2478,7 @@
       <c r="O18" t="s">
         <v>36</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" t="s">
         <v>36</v>
       </c>
       <c r="Q18" t="s">
@@ -2491,8 +2541,11 @@
       <c r="AJ18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2538,7 +2591,7 @@
       <c r="O19" t="s">
         <v>36</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" t="s">
         <v>36</v>
       </c>
       <c r="Q19" t="s">
@@ -2601,8 +2654,11 @@
       <c r="AJ19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2648,7 +2704,7 @@
       <c r="O20" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" t="s">
         <v>36</v>
       </c>
       <c r="Q20" t="s">
@@ -2711,8 +2767,11 @@
       <c r="AJ20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2758,7 +2817,7 @@
       <c r="O21" t="s">
         <v>36</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" t="s">
         <v>36</v>
       </c>
       <c r="Q21" t="s">
@@ -2821,8 +2880,11 @@
       <c r="AJ21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2930,7 @@
       <c r="O22" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" t="s">
         <v>36</v>
       </c>
       <c r="Q22" t="s">
@@ -2931,8 +2993,11 @@
       <c r="AJ22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3043,7 @@
       <c r="O23" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" t="s">
         <v>36</v>
       </c>
       <c r="Q23" t="s">
@@ -3041,8 +3106,11 @@
       <c r="AJ23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3156,7 @@
       <c r="O24" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="P24" t="s">
         <v>36</v>
       </c>
       <c r="Q24" t="s">
@@ -3151,8 +3219,11 @@
       <c r="AJ24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3198,7 +3269,7 @@
       <c r="O25" t="s">
         <v>36</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="P25" t="s">
         <v>36</v>
       </c>
       <c r="Q25" t="s">
@@ -3261,8 +3332,11 @@
       <c r="AJ25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3308,7 +3382,7 @@
       <c r="O26" t="s">
         <v>36</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" t="s">
         <v>36</v>
       </c>
       <c r="Q26" t="s">
@@ -3371,8 +3445,11 @@
       <c r="AJ26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3495,7 @@
       <c r="O27" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P27" t="s">
         <v>36</v>
       </c>
       <c r="Q27" t="s">
@@ -3481,8 +3558,11 @@
       <c r="AJ27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3528,7 +3608,7 @@
       <c r="O28" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="P28" t="s">
         <v>35</v>
       </c>
       <c r="Q28" t="s">
@@ -3591,8 +3671,11 @@
       <c r="AJ28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3638,7 +3721,7 @@
       <c r="O29" t="s">
         <v>36</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="P29" t="s">
         <v>36</v>
       </c>
       <c r="Q29" t="s">
@@ -3701,8 +3784,11 @@
       <c r="AJ29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3748,7 +3834,7 @@
       <c r="O30" t="s">
         <v>36</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="P30" t="s">
         <v>36</v>
       </c>
       <c r="Q30" t="s">
@@ -3811,8 +3897,11 @@
       <c r="AJ30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -3858,7 +3947,7 @@
       <c r="O31" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" t="s">
         <v>35</v>
       </c>
       <c r="Q31" t="s">
@@ -3921,8 +4010,11 @@
       <c r="AJ31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3968,7 +4060,7 @@
       <c r="O32" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="P32" t="s">
         <v>35</v>
       </c>
       <c r="Q32" t="s">
@@ -4031,8 +4123,11 @@
       <c r="AJ32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4078,7 +4173,7 @@
       <c r="O33" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" t="s">
         <v>36</v>
       </c>
       <c r="Q33" t="s">
@@ -4141,18 +4236,21 @@
       <c r="AJ33" t="s">
         <v>35</v>
       </c>
+      <c r="AK33" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A3:A33">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
-  <conditionalFormatting sqref="C3:U33 AA34 W3:CV33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C3:CV33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="AA34">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4169,159 +4267,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EE9258-9F87-4309-8817-DDBA350F8CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2D43D-3DB5-4ADE-8EEA-E2195F4B6DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -494,13 +494,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK34" sqref="AK34"/>
+      <selection pane="bottomRight" activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,9 +515,10 @@
     <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -623,8 +624,11 @@
       <c r="AK1" s="1">
         <v>45625</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL1" s="1">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +740,11 @@
       <c r="AK2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="AK3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -962,8 +972,11 @@
       <c r="AK4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1088,11 @@
       <c r="AK5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AK6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1301,8 +1320,11 @@
       <c r="AK7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1414,8 +1436,11 @@
       <c r="AK8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1527,8 +1552,11 @@
       <c r="AK9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1640,8 +1668,11 @@
       <c r="AK10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1753,8 +1784,11 @@
       <c r="AK11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1866,8 +1900,11 @@
       <c r="AK12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1979,8 +2016,11 @@
       <c r="AK13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2092,8 +2132,11 @@
       <c r="AK14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2205,8 +2248,11 @@
       <c r="AK15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2318,8 +2364,11 @@
       <c r="AK16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2431,8 +2480,11 @@
       <c r="AK17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2544,8 +2596,11 @@
       <c r="AK18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2657,8 +2712,11 @@
       <c r="AK19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2770,8 +2828,11 @@
       <c r="AK20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2883,8 +2944,11 @@
       <c r="AK21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2996,8 +3060,11 @@
       <c r="AK22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3109,8 +3176,11 @@
       <c r="AK23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3222,8 +3292,11 @@
       <c r="AK24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3335,8 +3408,11 @@
       <c r="AK25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3448,8 +3524,11 @@
       <c r="AK26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3561,8 +3640,11 @@
       <c r="AK27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3674,8 +3756,11 @@
       <c r="AK28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3787,8 +3872,11 @@
       <c r="AK29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3900,8 +3988,11 @@
       <c r="AK30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -4013,8 +4104,11 @@
       <c r="AK31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4126,8 +4220,11 @@
       <c r="AK32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4237,6 +4334,9 @@
         <v>35</v>
       </c>
       <c r="AK33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL33" t="s">
         <v>36</v>
       </c>
     </row>

--- a/2em/2DES/chamada.xlsx
+++ b/2em/2DES/chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCAS PAIVA\Documents\sesi2024\2em\2DES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A2D43D-3DB5-4ADE-8EEA-E2195F4B6DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B4C7B-1F22-438F-930C-F38B43A92E78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chamada" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="43">
   <si>
     <t>Aluno</t>
   </si>
@@ -494,31 +494,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL27" sqref="AL27"/>
+      <selection pane="bottomRight" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="37" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="37" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="C1" s="1">
         <v>45499</v>
       </c>
@@ -625,10 +625,22 @@
         <v>45625</v>
       </c>
       <c r="AL1" s="1">
-        <v>45334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+        <v>45628</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>45632</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>45635</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>45639</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -743,8 +755,20 @@
       <c r="AL2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -859,8 +883,20 @@
       <c r="AL3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -975,8 +1011,20 @@
       <c r="AL4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1139,20 @@
       <c r="AL5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1207,8 +1267,20 @@
       <c r="AL6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1323,8 +1395,20 @@
       <c r="AL7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1439,8 +1523,20 @@
       <c r="AL8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1651,20 @@
       <c r="AL9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1671,8 +1779,20 @@
       <c r="AL10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1787,8 +1907,20 @@
       <c r="AL11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1903,8 +2035,20 @@
       <c r="AL12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2019,8 +2163,20 @@
       <c r="AL13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2135,8 +2291,20 @@
       <c r="AL14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2251,8 +2419,20 @@
       <c r="AL15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2367,8 +2547,20 @@
       <c r="AL16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2483,8 +2675,20 @@
       <c r="AL17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2599,8 +2803,20 @@
       <c r="AL18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2715,8 +2931,20 @@
       <c r="AL19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2831,8 +3059,20 @@
       <c r="AL20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2947,8 +3187,20 @@
       <c r="AL21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3063,8 +3315,20 @@
       <c r="AL22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -3179,8 +3443,20 @@
       <c r="AL23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3295,8 +3571,20 @@
       <c r="AL24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -3411,8 +3699,20 @@
       <c r="AL25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -3527,8 +3827,20 @@
       <c r="AL26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3643,8 +3955,20 @@
       <c r="AL27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -3759,8 +4083,20 @@
       <c r="AL28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3875,8 +4211,20 @@
       <c r="AL29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3991,8 +4339,20 @@
       <c r="AL30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -4107,8 +4467,20 @@
       <c r="AL31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4223,8 +4595,20 @@
       <c r="AL32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4339,9 +4723,21 @@
       <c r="AL33" t="s">
         <v>36</v>
       </c>
+      <c r="AM33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A33">
+  <sortState ref="A3:A33">
     <sortCondition ref="A3:A33"/>
   </sortState>
   <conditionalFormatting sqref="C3:CV33">
@@ -4367,159 +4763,159 @@
       <selection sqref="A1:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
